--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H2">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I2">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J2">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>3.139012300981334</v>
+        <v>2.039643713837334</v>
       </c>
       <c r="R2">
-        <v>28.251110708832</v>
+        <v>18.356793424536</v>
       </c>
       <c r="S2">
-        <v>0.009925632302919856</v>
+        <v>0.01136323069625345</v>
       </c>
       <c r="T2">
-        <v>0.009925632302919856</v>
+        <v>0.01136323069625345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H3">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I3">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J3">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>2.58780204312</v>
+        <v>55.36909900535999</v>
       </c>
       <c r="R3">
-        <v>23.29021838808</v>
+        <v>498.32189104824</v>
       </c>
       <c r="S3">
-        <v>0.008182692226062294</v>
+        <v>0.3084714458575196</v>
       </c>
       <c r="T3">
-        <v>0.008182692226062296</v>
+        <v>0.3084714458575196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09821600000000001</v>
+        <v>2.101448</v>
       </c>
       <c r="H4">
-        <v>0.294648</v>
+        <v>6.304344</v>
       </c>
       <c r="I4">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="J4">
-        <v>0.02540301315491012</v>
+        <v>0.5480341737688159</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>2.30696812352</v>
+        <v>40.96068120389067</v>
       </c>
       <c r="R4">
-        <v>20.76271311168</v>
+        <v>368.646130835016</v>
       </c>
       <c r="S4">
-        <v>0.007294688625927969</v>
+        <v>0.2281994972150428</v>
       </c>
       <c r="T4">
-        <v>0.007294688625927969</v>
+        <v>0.2281994972150428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H5">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I5">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J5">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>67.16289730667734</v>
+        <v>1.682101774789333</v>
       </c>
       <c r="R5">
-        <v>604.4660757600959</v>
+        <v>15.138915973104</v>
       </c>
       <c r="S5">
-        <v>0.2123706947107022</v>
+        <v>0.009371298718415761</v>
       </c>
       <c r="T5">
-        <v>0.2123706947107021</v>
+        <v>0.009371298718415761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H6">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I6">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J6">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
-        <v>55.36909900535999</v>
+        <v>45.66310237103999</v>
       </c>
       <c r="R6">
-        <v>498.3218910482399</v>
+        <v>410.96792133936</v>
       </c>
       <c r="S6">
-        <v>0.1750784211643129</v>
+        <v>0.254397551409877</v>
       </c>
       <c r="T6">
-        <v>0.1750784211643129</v>
+        <v>0.254397551409877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.101448</v>
+        <v>1.733072</v>
       </c>
       <c r="H7">
-        <v>6.304344</v>
+        <v>5.199216</v>
       </c>
       <c r="I7">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="J7">
-        <v>0.5435276450716743</v>
+        <v>0.4519658262311841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>49.36032366655999</v>
+        <v>33.78042649420266</v>
       </c>
       <c r="R7">
-        <v>444.2429129990399</v>
+        <v>304.0238384478239</v>
       </c>
       <c r="S7">
-        <v>0.1560785291966592</v>
+        <v>0.1881969761028913</v>
       </c>
       <c r="T7">
-        <v>0.1560785291966592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.666649</v>
-      </c>
-      <c r="H8">
-        <v>4.999947</v>
-      </c>
-      <c r="I8">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J8">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>31.96029466666667</v>
-      </c>
-      <c r="N8">
-        <v>95.88088399999999</v>
-      </c>
-      <c r="O8">
-        <v>0.3907265741426954</v>
-      </c>
-      <c r="P8">
-        <v>0.3907265741426953</v>
-      </c>
-      <c r="Q8">
-        <v>53.26659314590533</v>
-      </c>
-      <c r="R8">
-        <v>479.399338313148</v>
-      </c>
-      <c r="S8">
-        <v>0.1684302471290734</v>
-      </c>
-      <c r="T8">
-        <v>0.1684302471290734</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.666649</v>
-      </c>
-      <c r="H9">
-        <v>4.999947</v>
-      </c>
-      <c r="I9">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J9">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.34807</v>
-      </c>
-      <c r="N9">
-        <v>79.04420999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.3221150253382706</v>
-      </c>
-      <c r="P9">
-        <v>0.3221150253382706</v>
-      </c>
-      <c r="Q9">
-        <v>43.91298451742999</v>
-      </c>
-      <c r="R9">
-        <v>395.2168606568699</v>
-      </c>
-      <c r="S9">
-        <v>0.1388539119478954</v>
-      </c>
-      <c r="T9">
-        <v>0.1388539119478954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.666649</v>
-      </c>
-      <c r="H10">
-        <v>4.999947</v>
-      </c>
-      <c r="I10">
-        <v>0.4310693417734156</v>
-      </c>
-      <c r="J10">
-        <v>0.4310693417734157</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>23.48872</v>
-      </c>
-      <c r="N10">
-        <v>70.46615999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.287158400519034</v>
-      </c>
-      <c r="P10">
-        <v>0.2871584005190339</v>
-      </c>
-      <c r="Q10">
-        <v>39.14745169927999</v>
-      </c>
-      <c r="R10">
-        <v>352.3270652935199</v>
-      </c>
-      <c r="S10">
-        <v>0.1237851826964468</v>
-      </c>
-      <c r="T10">
-        <v>0.1237851826964468</v>
+        <v>0.1881969761028913</v>
       </c>
     </row>
   </sheetData>
